--- a/doc/log/log_201508030314_chaixiaoyin.xlsx
+++ b/doc/log/log_201508030314_chaixiaoyin.xlsx
@@ -1,101 +1,418 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView windowWidth="15870" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
     <sheet name="周报" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
+  <oleSize ref="A1:E2"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
   </si>
   <si>
     <t>原计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>问题与后续计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.领域实体改造 @table, @entity；
-2.数据库表自动生成；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>19:00-21:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.检查编程环境和小组的是否一致
+2.导入老师上课的实例和小组的项目
+3.在score-dao中进行创建操作，创建相关模块</t>
   </si>
   <si>
     <t>周次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>执行情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题与后续计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -103,28 +420,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -173,7 +778,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -208,7 +813,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -382,24 +987,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -408,81 +1008,98 @@
     <col min="5" max="5" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="57" spans="1:3">
+      <c r="A2" s="1">
+        <v>43239</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>43216</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
   <cols>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="33" customHeight="1" spans="1:1">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/log_201508030314_chaixiaoyin.xlsx
+++ b/doc/log/log_201508030314_chaixiaoyin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="9630"/>
+    <workbookView windowWidth="21255" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>日期</t>
   </si>
@@ -40,6 +40,25 @@
     <t>1.检查编程环境和小组的是否一致
 2.导入老师上课的实例和小组的项目
 3.在score-dao中进行创建操作，创建相关模块</t>
+  </si>
+  <si>
+    <t>dao中的实例完成</t>
+  </si>
+  <si>
+    <t>有些Test执行上的问题</t>
+  </si>
+  <si>
+    <t>13:00-15:00</t>
+  </si>
+  <si>
+    <t>1.继续完善service包
+2.完善web包</t>
+  </si>
+  <si>
+    <t>基本完成</t>
+  </si>
+  <si>
+    <t>在执行上需要查阅资料</t>
   </si>
   <si>
     <t>周次</t>
@@ -58,7 +77,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -67,10 +86,101 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -91,36 +201,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,77 +215,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,25 +239,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +371,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,139 +395,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,6 +430,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -436,11 +481,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,8 +499,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,30 +522,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -503,176 +530,170 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -993,13 +1014,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
@@ -1025,7 +1046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="57" spans="1:3">
+    <row r="2" ht="57" spans="1:6">
       <c r="A2" s="1">
         <v>43239</v>
       </c>
@@ -1035,6 +1056,134 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" ht="28.5" spans="1:6">
+      <c r="A3" s="1">
+        <v>43240</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1060,13 +1209,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030314_chaixiaoyin.xlsx
+++ b/doc/log/log_201508030314_chaixiaoyin.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>日期</t>
   </si>
@@ -55,10 +55,16 @@
 2.完善web包</t>
   </si>
   <si>
-    <t>基本完成</t>
+    <t>完成</t>
   </si>
   <si>
     <t>在执行上需要查阅资料</t>
+  </si>
+  <si>
+    <t>11:00-12:00</t>
+  </si>
+  <si>
+    <t>继续对照老师的包完善</t>
   </si>
   <si>
     <t>周次</t>
@@ -74,8 +80,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -86,11 +92,139 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -101,134 +235,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -239,181 +245,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,6 +436,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -451,15 +492,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -467,16 +499,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,42 +536,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,133 +554,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,7 +1023,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1083,9 +1089,15 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="1">
+        <v>43241</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
@@ -1209,13 +1221,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030314_chaixiaoyin.xlsx
+++ b/doc/log/log_201508030314_chaixiaoyin.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>日期</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>继续对照老师的包完善</t>
+  </si>
+  <si>
+    <t>21:30-22:30</t>
+  </si>
+  <si>
+    <t>完善包</t>
   </si>
   <si>
     <t>周次</t>
@@ -79,9 +85,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,16 +98,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -114,101 +157,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,6 +196,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -228,11 +219,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -245,13 +251,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,13 +365,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,151 +419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,17 +442,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -461,30 +456,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,7 +503,42 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,10 +548,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,133 +560,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,7 +1029,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1098,14 +1104,22 @@
       <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="1">
+        <v>43243</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
@@ -1221,13 +1235,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030314_chaixiaoyin.xlsx
+++ b/doc/log/log_201508030314_chaixiaoyin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21255" windowHeight="6270"/>
+    <workbookView windowWidth="21255" windowHeight="4620"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>日期</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>完善包</t>
+  </si>
+  <si>
+    <t>9:00-11:30</t>
+  </si>
+  <si>
+    <t>对代码进行改良完善</t>
   </si>
   <si>
     <t>周次</t>
@@ -84,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -98,93 +104,110 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,36 +220,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -234,9 +241,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,13 +257,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,49 +383,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,115 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,8 +469,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,39 +529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -528,17 +540,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,13 +569,13 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,115 +584,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,7 +1035,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1120,14 +1126,22 @@
       <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="1">
+        <v>43244</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
@@ -1235,13 +1249,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030314_chaixiaoyin.xlsx
+++ b/doc/log/log_201508030314_chaixiaoyin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21255" windowHeight="4620"/>
+    <workbookView windowWidth="21255" windowHeight="6735"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>日期</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>对代码进行改良完善</t>
+  </si>
+  <si>
+    <t>21:30-23:00</t>
+  </si>
+  <si>
+    <t>测试错误</t>
   </si>
   <si>
     <t>周次</t>
@@ -90,10 +96,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -101,6 +107,80 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,28 +192,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -142,70 +200,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,8 +216,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,21 +249,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,13 +263,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,19 +383,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,145 +419,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,6 +454,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -500,21 +521,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -554,10 +560,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -566,133 +572,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,8 +1040,8 @@
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1142,14 +1148,22 @@
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="1">
+        <v>43249</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
@@ -1249,13 +1263,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030314_chaixiaoyin.xlsx
+++ b/doc/log/log_201508030314_chaixiaoyin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21255" windowHeight="6735"/>
+    <workbookView windowWidth="21255" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>日期</t>
   </si>
@@ -83,6 +83,19 @@
   </si>
   <si>
     <t>测试错误</t>
+  </si>
+  <si>
+    <t>20:00-22:00</t>
+  </si>
+  <si>
+    <t>对今天老师上课展示的web内容，进行自己完善</t>
+  </si>
+  <si>
+    <t>未完成</t>
+  </si>
+  <si>
+    <t>今天环境出了一些问题，
+明天继续解决</t>
   </si>
   <si>
     <t>周次</t>
@@ -96,10 +109,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -110,6 +123,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -118,28 +155,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -155,14 +193,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -171,14 +201,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,10 +215,17 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -208,47 +237,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,187 +276,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +467,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -473,16 +510,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,7 +528,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,30 +559,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -545,25 +567,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,133 +585,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,8 +1053,8 @@
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1164,16 +1177,28 @@
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+    <row r="8" ht="28.5" spans="1:6">
+      <c r="A8" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
@@ -1263,13 +1288,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030314_chaixiaoyin.xlsx
+++ b/doc/log/log_201508030314_chaixiaoyin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21255" windowHeight="6750"/>
+    <workbookView windowWidth="23145" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>日期</t>
   </si>
@@ -96,6 +96,26 @@
   <si>
     <t>今天环境出了一些问题，
 明天继续解决</t>
+  </si>
+  <si>
+    <t>18:00-20:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">完善了自己的dao包，清除了不需要的东西
+</t>
+  </si>
+  <si>
+    <t>明天解决service</t>
+  </si>
+  <si>
+    <t>17:00-19:00</t>
+  </si>
+  <si>
+    <t>完善了service和web包里需要的资源</t>
+  </si>
+  <si>
+    <t xml:space="preserve">但是service包的运行还有没有决
+</t>
   </si>
   <si>
     <t>周次</t>
@@ -109,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -131,31 +151,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,7 +168,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,83 +274,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,13 +296,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,37 +404,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,127 +470,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,30 +487,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -505,39 +501,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -559,6 +522,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -567,16 +563,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -585,133 +605,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1054,7 +1074,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1201,20 +1221,40 @@
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+    <row r="9" ht="28.5" spans="1:6">
+      <c r="A9" s="1">
+        <v>43253</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+    <row r="10" ht="42.75" spans="1:6">
+      <c r="A10" s="1">
+        <v>43254</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
@@ -1288,13 +1328,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030314_chaixiaoyin.xlsx
+++ b/doc/log/log_201508030314_chaixiaoyin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="6750"/>
+    <workbookView windowWidth="15825" windowHeight="4965"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>日期</t>
   </si>
@@ -116,6 +116,12 @@
   <si>
     <t xml:space="preserve">但是service包的运行还有没有决
 </t>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+  </si>
+  <si>
+    <t>对dao和service进行调试</t>
   </si>
   <si>
     <t>周次</t>
@@ -129,8 +135,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -153,7 +159,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,51 +204,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,32 +233,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,14 +265,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,31 +308,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,145 +380,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +511,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -524,31 +569,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,166 +593,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,8 +1079,8 @@
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1258,9 +1264,15 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="1">
+        <v>43255</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
@@ -1328,13 +1340,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030314_chaixiaoyin.xlsx
+++ b/doc/log/log_201508030314_chaixiaoyin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15825" windowHeight="4965"/>
+    <workbookView windowWidth="21120" windowHeight="6660"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>日期</t>
   </si>
@@ -122,6 +122,15 @@
   </si>
   <si>
     <t>对dao和service进行调试</t>
+  </si>
+  <si>
+    <t>service测试可以运行</t>
+  </si>
+  <si>
+    <t>9:00-11:00</t>
+  </si>
+  <si>
+    <t>对web进行补充和测试</t>
   </si>
   <si>
     <t>周次</t>
@@ -135,8 +144,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -149,47 +158,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,59 +264,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -264,23 +272,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,19 +311,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,55 +455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,103 +467,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +502,47 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -511,17 +561,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,50 +597,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -599,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,133 +620,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,7 +1088,7 @@
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -1273,14 +1282,24 @@
       <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="1">
+        <v>43256</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
@@ -1340,13 +1359,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030314_chaixiaoyin.xlsx
+++ b/doc/log/log_201508030314_chaixiaoyin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21120" windowHeight="6660"/>
+    <workbookView windowWidth="11940" windowHeight="6525"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>日期</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t>对web进行补充和测试</t>
+  </si>
+  <si>
+    <t>测试失败</t>
+  </si>
+  <si>
+    <t>18:00-19:00</t>
+  </si>
+  <si>
+    <t>对web进行分析</t>
   </si>
   <si>
     <t>周次</t>
@@ -158,6 +167,142 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -165,142 +310,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -311,78 +320,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -395,7 +488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,90 +501,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,6 +511,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -522,59 +546,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,8 +571,43 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,10 +617,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -620,133 +629,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1089,7 +1098,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1300,14 +1309,22 @@
       <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="1">
+        <v>43257</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
@@ -1359,13 +1376,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030314_chaixiaoyin.xlsx
+++ b/doc/log/log_201508030314_chaixiaoyin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11940" windowHeight="6525"/>
+    <workbookView windowWidth="27600" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>日期</t>
   </si>
@@ -32,6 +32,16 @@
   </si>
   <si>
     <t>问题与后续计划</t>
+  </si>
+  <si>
+    <t>18:00-20:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     仿照老师的构建base包创建实体类；
+</t>
+  </si>
+  <si>
+    <t>成功</t>
   </si>
   <si>
     <t>19:00-21:30</t>
@@ -98,9 +108,6 @@
 明天继续解决</t>
   </si>
   <si>
-    <t>18:00-20:00</t>
-  </si>
-  <si>
     <t xml:space="preserve">完善了自己的dao包，清除了不需要的东西
 </t>
   </si>
@@ -140,6 +147,15 @@
   </si>
   <si>
     <t>对web进行分析</t>
+  </si>
+  <si>
+    <t>10:00-13:00</t>
+  </si>
+  <si>
+    <t>对web包补充，测试，配置文件</t>
+  </si>
+  <si>
+    <t>已经初步可以运行</t>
   </si>
   <si>
     <t>周次</t>
@@ -168,91 +184,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,46 +306,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -320,25 +336,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,7 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,145 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,6 +527,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -525,21 +565,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,26 +593,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,25 +627,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,149 +645,161 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1095,10 +1123,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1127,230 +1155,257 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="57" spans="1:6">
+    <row r="2" ht="28.5" spans="1:6">
       <c r="A2" s="1">
+        <v>43220</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" ht="57" spans="1:6">
+      <c r="A3" s="6">
         <v>43239</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" ht="28.5" spans="1:6">
+      <c r="A4" s="6">
+        <v>43240</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="6">
+        <v>43241</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="6">
+        <v>43243</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="6">
+        <v>43244</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="6">
+        <v>43249</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" ht="28.5" spans="1:6">
+      <c r="A9" s="6">
+        <v>43252</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" ht="28.5" spans="1:6">
+      <c r="A10" s="6">
+        <v>43253</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" ht="28.5" spans="1:6">
-      <c r="A3" s="1">
-        <v>43240</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>43241</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="C10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>43243</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>43244</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>43249</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" ht="28.5" spans="1:6">
-      <c r="A8" s="1">
-        <v>43252</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" ht="28.5" spans="1:6">
-      <c r="A9" s="1">
-        <v>43253</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" ht="42.75" spans="1:6">
-      <c r="A10" s="1">
+      <c r="E10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" ht="42.75" spans="1:6">
+      <c r="A11" s="6">
         <v>43254</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
+      <c r="C11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6">
         <v>43255</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="B12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
+      <c r="C12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="6">
         <v>43256</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="B13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
+      <c r="C13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6">
         <v>43257</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
+      <c r="B14" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
+      <c r="A15" s="6">
+        <v>43258</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1376,13 +1431,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>

--- a/doc/log/log_201508030314_chaixiaoyin.xlsx
+++ b/doc/log/log_201508030314_chaixiaoyin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27600" windowHeight="11460"/>
+    <workbookView windowWidth="21870" windowHeight="5955"/>
   </bookViews>
   <sheets>
     <sheet name="日志" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>日期</t>
   </si>
@@ -156,6 +156,14 @@
   </si>
   <si>
     <t>已经初步可以运行</t>
+  </si>
+  <si>
+    <t>17:00-20:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+web包调整，最后测试，各个包加入注释
+</t>
   </si>
   <si>
     <t>周次</t>
@@ -171,8 +179,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -183,6 +191,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -190,18 +213,79 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -213,13 +297,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -227,101 +320,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,13 +344,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,13 +458,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,151 +476,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,30 +535,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -574,6 +558,50 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,36 +635,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,137 +653,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -788,18 +796,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1125,8 +1121,8 @@
   <sheetPr/>
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1169,243 +1165,249 @@
         <v>7</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="5"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" ht="57" spans="1:6">
-      <c r="A3" s="6">
+      <c r="A3" s="1">
         <v>43239</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" ht="28.5" spans="1:6">
-      <c r="A4" s="6">
+      <c r="A4" s="1">
         <v>43240</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="6">
+      <c r="A5" s="1">
         <v>43241</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6">
+      <c r="A6" s="1">
         <v>43243</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="6">
+      <c r="A7" s="1">
         <v>43244</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="6">
+      <c r="A8" s="1">
         <v>43249</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" ht="28.5" spans="1:6">
-      <c r="A9" s="6">
+      <c r="A9" s="1">
         <v>43252</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" ht="28.5" spans="1:6">
-      <c r="A10" s="6">
+      <c r="A10" s="1">
         <v>43253</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" ht="42.75" spans="1:6">
-      <c r="A11" s="6">
+      <c r="A11" s="1">
         <v>43254</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="6">
+      <c r="A12" s="1">
         <v>43255</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="6">
+      <c r="A13" s="1">
         <v>43256</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="5"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="6">
+      <c r="A14" s="1">
         <v>43257</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="5"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="6">
+      <c r="A15" s="1">
         <v>43258</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" ht="42.75" spans="1:5">
+      <c r="A16" s="1">
+        <v>43264</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1431,13 +1433,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
